--- a/input/ej3.xlsx
+++ b/input/ej3.xlsx
@@ -75,7 +75,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +86,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -117,13 +123,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -442,22 +454,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -477,7 +489,7 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -512,22 +524,22 @@
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>2</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>2</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -542,22 +554,22 @@
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>4</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>5</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>4</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -572,22 +584,22 @@
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>5</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>9</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>5</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -615,7 +627,7 @@
       <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -650,14 +662,14 @@
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -672,16 +684,16 @@
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -696,14 +708,14 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="2">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4">
         <v>1</v>
       </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -718,14 +730,14 @@
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4">
         <v>1</v>
       </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -740,12 +752,12 @@
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -760,12 +772,12 @@
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -780,12 +792,12 @@
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -800,12 +812,12 @@
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -820,12 +832,12 @@
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -840,12 +852,12 @@
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -860,12 +872,12 @@
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -880,12 +892,12 @@
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -900,12 +912,12 @@
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -920,12 +932,12 @@
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -940,12 +952,12 @@
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
